--- a/relatorio.xlsx
+++ b/relatorio.xlsx
@@ -7,8 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Paises" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Livros" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Relatorio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Paises" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Livros" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +427,61 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Informação</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Valor</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Data/Hora de geração</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>28/05/2025 08:56:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Gerado por</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Matheus&amp;Tiago</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -562,17 +618,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Republic of Chile</t>
+          <t>Argentine Republic</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Santiago</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -587,32 +643,32 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>19116209</t>
+          <t>45376763</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>756102.0</t>
+          <t>2780400.0</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Chilean peso ($)</t>
+          <t>Argentine peso ($)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Spanish</t>
+          <t>Guaraní, Spanish</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>UTC-06:00, UTC-04:00</t>
+          <t>UTC-03:00</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>https://flagcdn.com/w320/cl.png</t>
+          <t>https://flagcdn.com/w320/ar.png</t>
         </is>
       </c>
     </row>
@@ -681,7 +737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/relatorio.xlsx
+++ b/relatorio.xlsx
@@ -455,7 +455,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>28/05/2025 08:56:22</t>
+          <t>28/05/2025 09:02:34</t>
         </is>
       </c>
     </row>
@@ -618,57 +618,57 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Argentine Republic</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Tokyo</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Americas</t>
+          <t>Asia</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>South America</t>
+          <t>Eastern Asia</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>45376763</t>
+          <t>125836021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2780400.0</t>
+          <t>377930.0</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Argentine peso ($)</t>
+          <t>Japanese yen (¥)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Guaraní, Spanish</t>
+          <t>Japanese</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>UTC-03:00</t>
+          <t>UTC+09:00</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>https://flagcdn.com/w320/ar.png</t>
+          <t>https://flagcdn.com/w320/jp.png</t>
         </is>
       </c>
     </row>
@@ -678,17 +678,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Republic of Peru</t>
+          <t>Argentine Republic</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Lima</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -703,32 +703,32 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>32971846</t>
+          <t>45376763</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1285216.0</t>
+          <t>2780400.0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Peruvian sol (S/ )</t>
+          <t>Argentine peso ($)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Aymara, Quechua, Spanish</t>
+          <t>Guaraní, Spanish</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>UTC-05:00</t>
+          <t>UTC-03:00</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>https://flagcdn.com/w320/pe.png</t>
+          <t>https://flagcdn.com/w320/ar.png</t>
         </is>
       </c>
     </row>
@@ -743,7 +743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1028,6 +1028,506 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>A Light in the Attic</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Â£51.77</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Three</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>In stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Tipping the Velvet</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Â£53.74</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>One</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>In stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Soumission</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Â£50.10</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>One</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>In stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sharp Objects</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Â£47.82</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Four</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>In stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Sapiens: A Brief History of Humankind</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Â£54.23</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Five</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>In stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>The Requiem Red</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Â£22.65</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>One</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>In stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>The Dirty Little Secrets of Getting Your Dream Job</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Â£33.34</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Four</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>In stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>The Coming Woman: A Novel Based on the Life of the Infamous Feminist, Victoria Woodhull</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Â£17.93</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Three</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>In stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>The Boys in the Boat: Nine Americans and Their Epic Quest for Gold at the 1936 Berlin Olympics</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Â£22.60</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Four</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>In stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>The Black Maria</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Â£52.15</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>One</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>In stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>A Light in the Attic</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Â£51.77</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Three</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>In stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Tipping the Velvet</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Â£53.74</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>One</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>In stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Soumission</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Â£50.10</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>One</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>In stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Sharp Objects</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Â£47.82</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Four</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>In stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Sapiens: A Brief History of Humankind</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Â£54.23</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Five</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>In stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>The Requiem Red</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Â£22.65</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>One</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>In stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>The Dirty Little Secrets of Getting Your Dream Job</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Â£33.34</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Four</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>In stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>The Coming Woman: A Novel Based on the Life of the Infamous Feminist, Victoria Woodhull</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Â£17.93</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Three</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>In stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>The Boys in the Boat: Nine Americans and Their Epic Quest for Gold at the 1936 Berlin Olympics</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Â£22.60</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Four</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>In stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>The Black Maria</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Â£52.15</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>One</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>In stock</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
